--- a/Oppurtunity_Approval.xlsx
+++ b/Oppurtunity_Approval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -52,73 +52,148 @@
     <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
+    <x:t>New Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Opportunity tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Opportunity Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Amount </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Amount field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Amount field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Close Date </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Close Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Close Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Opportunity Name </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Opportunity Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Opportunity Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the   field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the  field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Stage, value should be equals Proposal/Price Quote to submit for Approval towards to the assigned approver </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Stage field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Stage field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Opportunity with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Opportunity is created</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>On the Opportunity page, Click on 'Submit for Approval' button to Submit for Approval.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pop-up confirming to submit the record for Approval is displayed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on 'Cancel' button to prevent submission for approval.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is redirected to the Opportunity Page</x:t>
+  </x:si>
+  <x:si>
     <x:t>Approve/Reject Opportunity</x:t>
   </x:si>
   <x:si>
-    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 1</x:t>
-  </x:si>
-  <x:si>
     <x:t>Click on the Opportunity tab</x:t>
   </x:si>
   <x:si>
     <x:t>User should be navigated to the Opportunity Page</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 2</x:t>
-  </x:si>
-  <x:si>
     <x:t>From the list of the  Opportunitys displayed, select the appropriate Opportunity.</x:t>
   </x:si>
   <x:si>
     <x:t>User should be navigated to the Opportunity details page.</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 3</x:t>
-  </x:si>
-  <x:si>
     <x:t>Scroll down the Opportunity page to locate the 'Approval History' section.</x:t>
   </x:si>
   <x:si>
     <x:t>User should be able to view the pending Approve/Reject requests listed.</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 4</x:t>
-  </x:si>
-  <x:si>
     <x:t>To Approve/Reject the record's request, Click on 'Approve/Reject' link.</x:t>
   </x:si>
   <x:si>
     <x:t>User should be navigated to the Approval Request, Account:(Approver Name) Page.</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 5</x:t>
-  </x:si>
-  <x:si>
     <x:t>In the 'Approve/Reject Approval Request' section, input comments if required.</x:t>
   </x:si>
   <x:si>
     <x:t>User should be able to input appropriate comments.</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 6</x:t>
-  </x:si>
-  <x:si>
     <x:t>Click on the 'Approve' or the 'Reject' button to either Approve or Reject the request.</x:t>
   </x:si>
   <x:si>
     <x:t>User should be able to either 'Approve' or 'Reject' the request.</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 7</x:t>
-  </x:si>
-  <x:si>
     <x:t>On performing either 'Approval' or 'Rejection' action, user is navigated to the Opportunity request page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 8</x:t>
   </x:si>
   <x:si>
     <x:t>User should be able to view the request is either 'Approved' or 'Rejected'.</x:t>
@@ -205,8 +280,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J9" totalsRowShown="0">
-  <x:autoFilter ref="A1:J9"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J18" totalsRowShown="0">
+  <x:autoFilter ref="A1:J18"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -511,7 +586,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J9"/>
+  <x:dimension ref="A1:J18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -521,7 +596,7 @@
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="28.270625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="124.84062499999999" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="94.130625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="76.550625" style="0" customWidth="1"/>
@@ -592,15 +667,17 @@
       <x:c r="B3" s="0" t="s"/>
       <x:c r="C3" s="0" t="s"/>
       <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
@@ -610,15 +687,17 @@
       <x:c r="B4" s="0" t="s"/>
       <x:c r="C4" s="0" t="s"/>
       <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
@@ -628,15 +707,17 @@
       <x:c r="B5" s="0" t="s"/>
       <x:c r="C5" s="0" t="s"/>
       <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
@@ -646,15 +727,17 @@
       <x:c r="B6" s="0" t="s"/>
       <x:c r="C6" s="0" t="s"/>
       <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
@@ -664,15 +747,17 @@
       <x:c r="B7" s="0" t="s"/>
       <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -684,13 +769,13 @@
       <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -702,16 +787,186 @@
       <x:c r="D9" s="0" t="s"/>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s"/>
+      <x:c r="F11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:10">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s"/>
+      <x:c r="F13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s"/>
+      <x:c r="F14" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
+      <x:c r="E16" s="0" t="s"/>
+      <x:c r="F16" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s"/>
+      <x:c r="F17" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:10">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s"/>
+      <x:c r="F18" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
